--- a/servents.xlsx
+++ b/servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F418"/>
+  <dimension ref="A1:F419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10335,7 +10335,11 @@
           <t>Archetype：Earth</t>
         </is>
       </c>
-      <c r="F354" t="inlineStr"/>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>Archetype：Earth</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="n">
@@ -10359,7 +10363,11 @@
           <t>方巿</t>
         </is>
       </c>
-      <c r="F355" t="inlineStr"/>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>徐福</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="n">
@@ -10383,7 +10391,11 @@
           <t>阿瓦隆女士</t>
         </is>
       </c>
-      <c r="F356" t="inlineStr"/>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Lady阿瓦隆</t>
+        </is>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="n">
@@ -10407,7 +10419,11 @@
           <t>加雷斯</t>
         </is>
       </c>
-      <c r="F357" t="inlineStr"/>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>加雷斯</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="n">
@@ -10431,7 +10447,11 @@
           <t>伊吹童子</t>
         </is>
       </c>
-      <c r="F358" t="inlineStr"/>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>伊吹童子</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="n">
@@ -10455,7 +10475,11 @@
           <t>宇津見繪里瀨</t>
         </is>
       </c>
-      <c r="F359" t="inlineStr"/>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>宇津見繪里世</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="n">
@@ -10479,7 +10503,11 @@
           <t>斯卡哈·斯卡蒂</t>
         </is>
       </c>
-      <c r="F360" t="inlineStr"/>
+      <c r="F360" t="inlineStr">
+        <is>
+          <t>斯卡薩哈=斯卡蒂</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="n">
@@ -10503,7 +10531,11 @@
           <t>周照</t>
         </is>
       </c>
-      <c r="F361" t="inlineStr"/>
+      <c r="F361" t="inlineStr">
+        <is>
+          <t>武則天</t>
+        </is>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="n">
@@ -10527,7 +10559,11 @@
           <t>斯露德</t>
         </is>
       </c>
-      <c r="F362" t="inlineStr"/>
+      <c r="F362" t="inlineStr">
+        <is>
+          <t>斯露德</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="n">
@@ -10551,7 +10587,11 @@
           <t>希露德</t>
         </is>
       </c>
-      <c r="F363" t="inlineStr"/>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>希露德</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="n">
@@ -10575,7 +10615,11 @@
           <t>奧特琳德</t>
         </is>
       </c>
-      <c r="F364" t="inlineStr"/>
+      <c r="F364" t="inlineStr">
+        <is>
+          <t>奧特琳德</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="n">
@@ -10599,7 +10643,11 @@
           <t>千利休</t>
         </is>
       </c>
-      <c r="F365" t="inlineStr"/>
+      <c r="F365" t="inlineStr">
+        <is>
+          <t>千利休</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" t="n">
@@ -10623,7 +10671,11 @@
           <t>山南敬助</t>
         </is>
       </c>
-      <c r="F366" t="inlineStr"/>
+      <c r="F366" t="inlineStr">
+        <is>
+          <t>山南敬助</t>
+        </is>
+      </c>
     </row>
     <row r="367">
       <c r="A367" t="n">
@@ -10647,7 +10699,11 @@
           <t>壹與</t>
         </is>
       </c>
-      <c r="F367" t="inlineStr"/>
+      <c r="F367" t="inlineStr">
+        <is>
+          <t>臺與</t>
+        </is>
+      </c>
     </row>
     <row r="368">
       <c r="A368" t="n">
@@ -10671,7 +10727,11 @@
           <t>吾綽</t>
         </is>
       </c>
-      <c r="F368" t="inlineStr"/>
+      <c r="F368" t="inlineStr">
+        <is>
+          <t>呼延灼</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" t="n">
@@ -10695,7 +10755,11 @@
           <t>黃飛虎</t>
         </is>
       </c>
-      <c r="F369" t="inlineStr"/>
+      <c r="F369" t="inlineStr">
+        <is>
+          <t>黃飛虎</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" t="n">
@@ -10719,7 +10783,11 @@
           <t>九紋龍伊麗莎</t>
         </is>
       </c>
-      <c r="F370" t="inlineStr"/>
+      <c r="F370" t="inlineStr">
+        <is>
+          <t>九紋龍伊莉莎</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" t="n">
@@ -11026,7 +11094,11 @@
           <t>果心居士</t>
         </is>
       </c>
-      <c r="E383" t="inlineStr"/>
+      <c r="E383" t="inlineStr">
+        <is>
+          <t>果心居士</t>
+        </is>
+      </c>
       <c r="F383" t="inlineStr"/>
     </row>
     <row r="384">
@@ -11046,7 +11118,11 @@
           <t>ビーマ</t>
         </is>
       </c>
-      <c r="E384" t="inlineStr"/>
+      <c r="E384" t="inlineStr">
+        <is>
+          <t>怖軍</t>
+        </is>
+      </c>
       <c r="F384" t="inlineStr"/>
     </row>
     <row r="385">
@@ -11066,7 +11142,11 @@
           <t>ドゥリーヨダナ</t>
         </is>
       </c>
-      <c r="E385" t="inlineStr"/>
+      <c r="E385" t="inlineStr">
+        <is>
+          <t>難敵</t>
+        </is>
+      </c>
       <c r="F385" t="inlineStr"/>
     </row>
     <row r="386">
@@ -11086,7 +11166,11 @@
           <t>ドゥルガー</t>
         </is>
       </c>
-      <c r="E386" t="inlineStr"/>
+      <c r="E386" t="inlineStr">
+        <is>
+          <t>杜爾伽</t>
+        </is>
+      </c>
       <c r="F386" t="inlineStr"/>
     </row>
     <row r="387">
@@ -11106,7 +11190,11 @@
           <t>メドゥーサ</t>
         </is>
       </c>
-      <c r="E387" t="inlineStr"/>
+      <c r="E387" t="inlineStr">
+        <is>
+          <t>美杜莎</t>
+        </is>
+      </c>
       <c r="F387" t="inlineStr"/>
     </row>
     <row r="388">
@@ -11126,7 +11214,11 @@
           <t>雨の魔女トネリコ</t>
         </is>
       </c>
-      <c r="E388" t="inlineStr"/>
+      <c r="E388" t="inlineStr">
+        <is>
+          <t>雨之魔女梣</t>
+        </is>
+      </c>
       <c r="F388" t="inlineStr"/>
     </row>
     <row r="389">
@@ -11728,6 +11820,26 @@
       </c>
       <c r="E418" t="inlineStr"/>
       <c r="F418" t="inlineStr"/>
+    </row>
+    <row r="419">
+      <c r="A419" t="n">
+        <v>416</v>
+      </c>
+      <c r="B419" t="n">
+        <v>5</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Alterego</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>ひびき＆千鍵</t>
+        </is>
+      </c>
+      <c r="E419" t="inlineStr"/>
+      <c r="F419" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/servents.xlsx
+++ b/servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F419"/>
+  <dimension ref="A1:F428"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10811,7 +10811,11 @@
           <t>布里託瑪特</t>
         </is>
       </c>
-      <c r="F371" t="inlineStr"/>
+      <c r="F371" t="inlineStr">
+        <is>
+          <t>布里托瑪特</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" t="n">
@@ -11238,7 +11242,11 @@
           <t>アルトリア・キャスター</t>
         </is>
       </c>
-      <c r="E389" t="inlineStr"/>
+      <c r="E389" t="inlineStr">
+        <is>
+          <t>阿爾託莉雅·卡斯特</t>
+        </is>
+      </c>
       <c r="F389" t="inlineStr"/>
     </row>
     <row r="390">
@@ -11258,7 +11266,11 @@
           <t>鈴鹿御前〔サマバケ〕</t>
         </is>
       </c>
-      <c r="E390" t="inlineStr"/>
+      <c r="E390" t="inlineStr">
+        <is>
+          <t>鈴鹿御前〔暑假〕</t>
+        </is>
+      </c>
       <c r="F390" t="inlineStr"/>
     </row>
     <row r="391">
@@ -11278,7 +11290,11 @@
           <t>クロエ・フォン・アインツベルン</t>
         </is>
       </c>
-      <c r="E391" t="inlineStr"/>
+      <c r="E391" t="inlineStr">
+        <is>
+          <t>克洛伊·馮·愛因茲貝倫</t>
+        </is>
+      </c>
       <c r="F391" t="inlineStr"/>
     </row>
     <row r="392">
@@ -11298,7 +11314,11 @@
           <t>ノクナレア・ヤラアーンドゥ</t>
         </is>
       </c>
-      <c r="E392" t="inlineStr"/>
+      <c r="E392" t="inlineStr">
+        <is>
+          <t>諾克娜蕾·雅蘭杜</t>
+        </is>
+      </c>
       <c r="F392" t="inlineStr"/>
     </row>
     <row r="393">
@@ -11318,7 +11338,11 @@
           <t>メリュジーヌ</t>
         </is>
       </c>
-      <c r="E393" t="inlineStr"/>
+      <c r="E393" t="inlineStr">
+        <is>
+          <t>梅柳齊娜</t>
+        </is>
+      </c>
       <c r="F393" t="inlineStr"/>
     </row>
     <row r="394">
@@ -11338,7 +11362,11 @@
           <t>ＵＤＫ－バーゲスト</t>
         </is>
       </c>
-      <c r="E394" t="inlineStr"/>
+      <c r="E394" t="inlineStr">
+        <is>
+          <t>ＵＤＫ－巴格斯特</t>
+        </is>
+      </c>
       <c r="F394" t="inlineStr"/>
     </row>
     <row r="395">
@@ -11358,7 +11386,11 @@
           <t>ケット・クー・ミコケル</t>
         </is>
       </c>
-      <c r="E395" t="inlineStr"/>
+      <c r="E395" t="inlineStr">
+        <is>
+          <t>凱特·庫·米可科爾</t>
+        </is>
+      </c>
       <c r="F395" t="inlineStr"/>
     </row>
     <row r="396">
@@ -11378,7 +11410,11 @@
           <t>ワンジナ</t>
         </is>
       </c>
-      <c r="E396" t="inlineStr"/>
+      <c r="E396" t="inlineStr">
+        <is>
+          <t>旺吉娜</t>
+        </is>
+      </c>
       <c r="F396" t="inlineStr"/>
     </row>
     <row r="397">
@@ -11840,6 +11876,186 @@
       </c>
       <c r="E419" t="inlineStr"/>
       <c r="F419" t="inlineStr"/>
+    </row>
+    <row r="420">
+      <c r="A420" t="n">
+        <v>417</v>
+      </c>
+      <c r="B420" t="n">
+        <v>5</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Beasteresh</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>エレシュキガル</t>
+        </is>
+      </c>
+      <c r="E420" t="inlineStr"/>
+      <c r="F420" t="inlineStr"/>
+    </row>
+    <row r="421">
+      <c r="A421" t="n">
+        <v>418</v>
+      </c>
+      <c r="B421" t="n">
+        <v>5</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Mooncancer</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>謎の代行者C.I.E.L</t>
+        </is>
+      </c>
+      <c r="E421" t="inlineStr"/>
+      <c r="F421" t="inlineStr"/>
+    </row>
+    <row r="422">
+      <c r="A422" t="n">
+        <v>419</v>
+      </c>
+      <c r="B422" t="n">
+        <v>4</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>ドブルイニャ・ニキチッチ</t>
+        </is>
+      </c>
+      <c r="E422" t="inlineStr"/>
+      <c r="F422" t="inlineStr"/>
+    </row>
+    <row r="423">
+      <c r="A423" t="n">
+        <v>420</v>
+      </c>
+      <c r="B423" t="n">
+        <v>4</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Avenger</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>徐福</t>
+        </is>
+      </c>
+      <c r="E423" t="inlineStr"/>
+      <c r="F423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" t="n">
+        <v>421</v>
+      </c>
+      <c r="B424" t="n">
+        <v>5</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Mooncancer</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>ＢＢドバイ</t>
+        </is>
+      </c>
+      <c r="E424" t="inlineStr"/>
+      <c r="F424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" t="n">
+        <v>422</v>
+      </c>
+      <c r="B425" t="n">
+        <v>4</v>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>Mooncancer</t>
+        </is>
+      </c>
+      <c r="D425" t="inlineStr">
+        <is>
+          <t>テノチティトラン</t>
+        </is>
+      </c>
+      <c r="E425" t="inlineStr"/>
+      <c r="F425" t="inlineStr"/>
+    </row>
+    <row r="426">
+      <c r="A426" t="n">
+        <v>423</v>
+      </c>
+      <c r="B426" t="n">
+        <v>4</v>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>Foreigner</t>
+        </is>
+      </c>
+      <c r="D426" t="inlineStr">
+        <is>
+          <t>謎のヒロインXX〔オルタ〕</t>
+        </is>
+      </c>
+      <c r="E426" t="inlineStr"/>
+      <c r="F426" t="inlineStr"/>
+    </row>
+    <row r="427">
+      <c r="A427" t="n">
+        <v>424</v>
+      </c>
+      <c r="B427" t="n">
+        <v>4</v>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>Mooncancer</t>
+        </is>
+      </c>
+      <c r="D427" t="inlineStr">
+        <is>
+          <t>岸波白野</t>
+        </is>
+      </c>
+      <c r="E427" t="inlineStr"/>
+      <c r="F427" t="inlineStr"/>
+    </row>
+    <row r="428">
+      <c r="A428" t="n">
+        <v>425</v>
+      </c>
+      <c r="B428" t="n">
+        <v>4</v>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>Mooncancer</t>
+        </is>
+      </c>
+      <c r="D428" t="inlineStr">
+        <is>
+          <t>岸波白野</t>
+        </is>
+      </c>
+      <c r="E428" t="inlineStr"/>
+      <c r="F428" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/servents.xlsx
+++ b/servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F428"/>
+  <dimension ref="A1:F433"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10839,7 +10839,11 @@
           <t>言峯綺禮</t>
         </is>
       </c>
-      <c r="F372" t="inlineStr"/>
+      <c r="F372" t="inlineStr">
+        <is>
+          <t>言峰綺禮</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" t="n">
@@ -10863,7 +10867,11 @@
           <t>尼託克麗絲〔Alter〕</t>
         </is>
       </c>
-      <c r="F373" t="inlineStr"/>
+      <c r="F373" t="inlineStr">
+        <is>
+          <t>尼托克里絲〔Alter〕</t>
+        </is>
+      </c>
     </row>
     <row r="374">
       <c r="A374" t="n">
@@ -10887,7 +10895,11 @@
           <t>特斯卡特利波卡</t>
         </is>
       </c>
-      <c r="F374" t="inlineStr"/>
+      <c r="F374" t="inlineStr">
+        <is>
+          <t>特斯卡特利波卡</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="n">
@@ -10911,7 +10923,11 @@
           <t>特諾奇蒂特蘭</t>
         </is>
       </c>
-      <c r="F375" t="inlineStr"/>
+      <c r="F375" t="inlineStr">
+        <is>
+          <t>特諾奇提特蘭</t>
+        </is>
+      </c>
     </row>
     <row r="376">
       <c r="A376" t="n">
@@ -10935,7 +10951,11 @@
           <t>庫庫爾坎</t>
         </is>
       </c>
-      <c r="F376" t="inlineStr"/>
+      <c r="F376" t="inlineStr">
+        <is>
+          <t>庫庫爾坎</t>
+        </is>
+      </c>
     </row>
     <row r="377">
       <c r="A377" t="n">
@@ -10959,7 +10979,11 @@
           <t>女教皇若安</t>
         </is>
       </c>
-      <c r="F377" t="inlineStr"/>
+      <c r="F377" t="inlineStr">
+        <is>
+          <t>女教皇瓊安</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="n">
@@ -11434,7 +11458,11 @@
           <t>プトレマイオス</t>
         </is>
       </c>
-      <c r="E397" t="inlineStr"/>
+      <c r="E397" t="inlineStr">
+        <is>
+          <t>托勒密</t>
+        </is>
+      </c>
       <c r="F397" t="inlineStr"/>
     </row>
     <row r="398">
@@ -11454,7 +11482,11 @@
           <t>杉谷善住坊</t>
         </is>
       </c>
-      <c r="E398" t="inlineStr"/>
+      <c r="E398" t="inlineStr">
+        <is>
+          <t>杉谷善住坊</t>
+        </is>
+      </c>
       <c r="F398" t="inlineStr"/>
     </row>
     <row r="399">
@@ -11474,7 +11506,11 @@
           <t>テセウス</t>
         </is>
       </c>
-      <c r="E399" t="inlineStr"/>
+      <c r="E399" t="inlineStr">
+        <is>
+          <t>忒修斯</t>
+        </is>
+      </c>
       <c r="F399" t="inlineStr"/>
     </row>
     <row r="400">
@@ -11494,7 +11530,11 @@
           <t>武田晴信</t>
         </is>
       </c>
-      <c r="E400" t="inlineStr"/>
+      <c r="E400" t="inlineStr">
+        <is>
+          <t>武田晴信</t>
+        </is>
+      </c>
       <c r="F400" t="inlineStr"/>
     </row>
     <row r="401">
@@ -11514,7 +11554,11 @@
           <t>永倉新八</t>
         </is>
       </c>
-      <c r="E401" t="inlineStr"/>
+      <c r="E401" t="inlineStr">
+        <is>
+          <t>永倉新八</t>
+        </is>
+      </c>
       <c r="F401" t="inlineStr"/>
     </row>
     <row r="402">
@@ -11534,7 +11578,11 @@
           <t>雑賀孫一</t>
         </is>
       </c>
-      <c r="E402" t="inlineStr"/>
+      <c r="E402" t="inlineStr">
+        <is>
+          <t>雜賀孫一</t>
+        </is>
+      </c>
       <c r="F402" t="inlineStr"/>
     </row>
     <row r="403">
@@ -11554,7 +11602,11 @@
           <t>上杉謙信</t>
         </is>
       </c>
-      <c r="E403" t="inlineStr"/>
+      <c r="E403" t="inlineStr">
+        <is>
+          <t>上杉謙信</t>
+        </is>
+      </c>
       <c r="F403" t="inlineStr"/>
     </row>
     <row r="404">
@@ -12056,6 +12108,106 @@
       </c>
       <c r="E428" t="inlineStr"/>
       <c r="F428" t="inlineStr"/>
+    </row>
+    <row r="429">
+      <c r="A429" t="n">
+        <v>426</v>
+      </c>
+      <c r="B429" t="n">
+        <v>5</v>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>Alterego</t>
+        </is>
+      </c>
+      <c r="D429" t="inlineStr">
+        <is>
+          <t>カズラドロップ</t>
+        </is>
+      </c>
+      <c r="E429" t="inlineStr"/>
+      <c r="F429" t="inlineStr"/>
+    </row>
+    <row r="430">
+      <c r="A430" t="n">
+        <v>427</v>
+      </c>
+      <c r="B430" t="n">
+        <v>5</v>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="D430" t="inlineStr">
+        <is>
+          <t>ツタンカーメン</t>
+        </is>
+      </c>
+      <c r="E430" t="inlineStr"/>
+      <c r="F430" t="inlineStr"/>
+    </row>
+    <row r="431">
+      <c r="A431" t="n">
+        <v>428</v>
+      </c>
+      <c r="B431" t="n">
+        <v>4</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>ヴァン・ゴッホ〔マイナー〕</t>
+        </is>
+      </c>
+      <c r="E431" t="inlineStr"/>
+      <c r="F431" t="inlineStr"/>
+    </row>
+    <row r="432">
+      <c r="A432" t="n">
+        <v>429</v>
+      </c>
+      <c r="B432" t="n">
+        <v>5</v>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>Berserker</t>
+        </is>
+      </c>
+      <c r="D432" t="inlineStr">
+        <is>
+          <t>ロウヒ</t>
+        </is>
+      </c>
+      <c r="E432" t="inlineStr"/>
+      <c r="F432" t="inlineStr"/>
+    </row>
+    <row r="433">
+      <c r="A433" t="n">
+        <v>430</v>
+      </c>
+      <c r="B433" t="n">
+        <v>4</v>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>Pretender</t>
+        </is>
+      </c>
+      <c r="D433" t="inlineStr">
+        <is>
+          <t>アビゲイル・ウィリアムズ〔サンタ〕</t>
+        </is>
+      </c>
+      <c r="E433" t="inlineStr"/>
+      <c r="F433" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/servents.xlsx
+++ b/servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F433"/>
+  <dimension ref="A1:F435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -482,7 +482,11 @@
           <t>蒼崎青子</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>蒼崎青子</t>
+        </is>
+      </c>
       <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
@@ -11007,7 +11011,11 @@
           <t>高杉晉作</t>
         </is>
       </c>
-      <c r="F378" t="inlineStr"/>
+      <c r="F378" t="inlineStr">
+        <is>
+          <t>高杉晉作</t>
+        </is>
+      </c>
     </row>
     <row r="379">
       <c r="A379" t="n">
@@ -11626,7 +11634,11 @@
           <t>ネモ〔サンタ〕</t>
         </is>
       </c>
-      <c r="E404" t="inlineStr"/>
+      <c r="E404" t="inlineStr">
+        <is>
+          <t>尼莫〔聖誕〕</t>
+        </is>
+      </c>
       <c r="F404" t="inlineStr"/>
     </row>
     <row r="405">
@@ -11646,7 +11658,11 @@
           <t>ヤマトタケル</t>
         </is>
       </c>
-      <c r="E405" t="inlineStr"/>
+      <c r="E405" t="inlineStr">
+        <is>
+          <t>大和武尊</t>
+        </is>
+      </c>
       <c r="F405" t="inlineStr"/>
     </row>
     <row r="406">
@@ -12208,6 +12224,46 @@
       </c>
       <c r="E433" t="inlineStr"/>
       <c r="F433" t="inlineStr"/>
+    </row>
+    <row r="434">
+      <c r="A434" t="n">
+        <v>431</v>
+      </c>
+      <c r="B434" t="n">
+        <v>5</v>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>Pretender</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>ファンタズムーン</t>
+        </is>
+      </c>
+      <c r="E434" t="inlineStr"/>
+      <c r="F434" t="inlineStr"/>
+    </row>
+    <row r="435">
+      <c r="A435" t="n">
+        <v>432</v>
+      </c>
+      <c r="B435" t="n">
+        <v>5</v>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>リチャードⅠ世</t>
+        </is>
+      </c>
+      <c r="E435" t="inlineStr"/>
+      <c r="F435" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
